--- a/profs/xlsx/Расписание Хорев Тимофей Сергеевич.xlsx
+++ b/profs/xlsx/Расписание Хорев Тимофей Сергеевич.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Расписание на осенний семестр 2018/19 года обучения
 для преподавателя Хорев Т.С.</t>
@@ -57,74 +57,19 @@
     <t xml:space="preserve">Понедельник</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд.256(3), Гироскопические приборы, ЛР, М3О-305С-16 (12.11-26.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.256(3), Гироскопические приборы, ЛР, М3О-305С-16 (12.11-26.11) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Вторник</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд.256(3), Гироскопические приборы, ЛР, М3О-301С-16 (11.09-06.11) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.256(3), Гироскопические приборы, ЛР, М3О-305С-16 (11.09-09.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.256(3), Гироскопические приборы, ЛР, М3О-305С-16 (11.09-09.10) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Среда</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд.342(3), Элементы навигационных приборов и систем, ЛР, М3О-304С-16 (05.09-14.11) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Четверг</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд.342(3), Элементы навигационных приборов и систем, ПЗ, М3О-213Б-17 (13.09-11.10) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.256(3), Системы приборного оборудования, ЛР, 1О-512С-14 (27.09-25.10) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Пятница</t>
   </si>
   <si>
-    <t xml:space="preserve">ауд.256(3), Системы приборного оборудования, ЛР, 1О-502С-14 (28.09-26.10) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Суббота</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.256(3), Системы приборного оборудования, ЛР, 1О-510С-14 (29.09-27.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.136(3), Элементы навигационных приборов и систем, ПЗ, М3О-213Б-17 (01.09-15.09)
----
-ауд.256(3), Системы приборного оборудования, ЛР, 1О-510С-14 (29.09-27.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.256(3), Гироскопические приборы, ЛР, М3О-303С-16 (15.09-10.11) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.каф.(-), Основы конструирования приборов, ПЗ, М3О-304С-16 (20.10)
----
-ауд.256(3), Гироскопические приборы, ЛР, М3О-302С-16 (17.11-15.12)
----
-ауд.342(3), Основы конструирования приборов, ЛР, М3О-303С-16 (03.11-01.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.256(3), Гироскопические приборы, ЛР, М3О-302С-16 (17.11-01.12)
----
-ауд.256(3), Гироскопические приборы, ЛР, М3О-304С-16 (08.09-03.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ауд.256(3), Гироскопические приборы, ЛР, М3О-302С-16 (17.11-01.12)
----
-ауд.256(3), Гироскопические приборы, ЛР, М3О-304С-16 (08.09-03.11) </t>
   </si>
   <si>
     <t xml:space="preserve">Воскресенье</t>
@@ -145,6 +90,7 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -166,12 +112,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
@@ -264,7 +212,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -307,10 +255,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -392,15 +336,15 @@
   </sheetPr>
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="32.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.62"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -455,32 +399,20 @@
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -497,7 +429,7 @@
     </row>
     <row r="9" s="1" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -512,30 +444,20 @@
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" s="1" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>19</v>
-      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
@@ -551,16 +473,12 @@
     </row>
     <row r="13" s="1" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -577,45 +495,29 @@
     </row>
     <row r="15" s="1" customFormat="true" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" s="1" customFormat="true" ht="86.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4"/>
-      <c r="B16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" s="1" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -642,7 +544,7 @@
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="0"/>
